--- a/downloaded_files/EPES403_Lecture-35417.xlsx
+++ b/downloaded_files/EPES403_Lecture-35417.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Alaa Mahmoud Elhussein Abdelaal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>باكينام حاتم حافظ شعبان السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pakiname hatem hafez chaaban</x:t>
   </x:si>
   <x:si>
     <x:t>1220227</x:t>
@@ -467,7 +476,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -767,7 +776,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -777,7 +786,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.780625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.480625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1146,7 +1155,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.419581794</x:v>
+        <x:v>45919.6735257292</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1178,7 +1187,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.3456099537</x:v>
+        <x:v>45907.419581794</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1210,7 +1219,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6660893171</x:v>
+        <x:v>45913.3456099537</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1242,7 +1251,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.414821956</x:v>
+        <x:v>45906.6660893171</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1274,7 +1283,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6647248495</x:v>
+        <x:v>45907.414821956</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1306,7 +1315,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6646109954</x:v>
+        <x:v>45906.6647248495</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1338,7 +1347,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.3528381944</x:v>
+        <x:v>45906.6646109954</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1370,7 +1379,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4153457176</x:v>
+        <x:v>45913.3528381944</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1402,7 +1411,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4173033218</x:v>
+        <x:v>45907.4153457176</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1434,7 +1443,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45907.4173033218</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1466,7 +1475,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45913.3487594907</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1498,7 +1507,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45913.3487594907</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1530,7 +1539,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.415127581</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1562,7 +1571,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4142920486</x:v>
+        <x:v>45907.415127581</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1594,7 +1603,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4145021991</x:v>
+        <x:v>45906.4142920486</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1626,7 +1635,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45907.4145021991</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1658,7 +1667,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4197170949</x:v>
+        <x:v>45906.6645735301</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1690,7 +1699,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4148835301</x:v>
+        <x:v>45907.4197170949</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1722,7 +1731,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6649875347</x:v>
+        <x:v>45907.4148835301</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1754,7 +1763,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6656438657</x:v>
+        <x:v>45906.6649875347</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1786,7 +1795,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4559436343</x:v>
+        <x:v>45906.6656438657</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1818,7 +1827,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6649126968</x:v>
+        <x:v>45907.4559436343</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1850,7 +1859,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45906.6649126968</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1878,9 +1887,11 @@
       <x:c r="C34" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s"/>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4454012384</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1903,16 +1914,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
+      <x:c r="D35" s="2" t="s"/>
       <x:c r="E35" s="3">
-        <x:v>45909.415621794</x:v>
+        <x:v>45906.4454012384</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1944,7 +1953,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.5512003472</x:v>
+        <x:v>45909.415621794</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1976,7 +1985,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45909.5512003472</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1993,6 +2002,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES403_Lecture-35417.xlsx
+++ b/downloaded_files/EPES403_Lecture-35417.xlsx
@@ -105,15 +105,6 @@
     <x:t>Eslam Yousef Ahmed Ahmed Mohamed ElKorashy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210407</x:t>
-  </x:si>
-  <x:si>
-    <x:t>الاء محمود الحسين عبدالعال</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alaa Mahmoud Elhussein Abdelaal</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210131</x:t>
   </x:si>
   <x:si>
@@ -249,6 +240,15 @@
     <x:t>abdelhaleem mohamed yaseen ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الله اشرف فاروق قاسم قاسم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Ashraf Farouk Kassem</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220180</x:t>
   </x:si>
   <x:si>
@@ -312,15 +312,6 @@
     <x:t>Mohamed shawket Moustafa Taha Khalaaf</x:t>
   </x:si>
   <x:si>
-    <x:t>1210423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم مجدى محمد احمد ايوب</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Mariam Magdy Mohamed </x:t>
-  </x:si>
-  <x:si>
     <x:t>4230181</x:t>
   </x:si>
   <x:si>
@@ -334,6 +325,15 @@
   </x:si>
   <x:si>
     <x:t>نورهان بهاء على عبدالرحمن احمد شاهين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210089</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيى عزب محمد محمد العزب الباجوري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yahia azab mohamed mohamed alazab albagoury</x:t>
   </x:si>
   <x:si>
     <x:t>1200458</x:t>
@@ -1123,7 +1123,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.664603044</x:v>
+        <x:v>45919.6735257292</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1155,7 +1155,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45919.6735257292</x:v>
+        <x:v>45907.419581794</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1187,7 +1187,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.419581794</x:v>
+        <x:v>45913.3456099537</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1219,7 +1219,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.3456099537</x:v>
+        <x:v>45906.6660893171</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1251,7 +1251,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6660893171</x:v>
+        <x:v>45907.414821956</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1283,7 +1283,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.414821956</x:v>
+        <x:v>45906.6647248495</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1315,7 +1315,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647248495</x:v>
+        <x:v>45906.6646109954</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1347,7 +1347,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6646109954</x:v>
+        <x:v>45913.3528381944</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1379,7 +1379,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.3528381944</x:v>
+        <x:v>45907.4153457176</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1411,7 +1411,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4153457176</x:v>
+        <x:v>45907.4173033218</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1443,7 +1443,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4173033218</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1475,7 +1475,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45913.3487594907</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1507,7 +1507,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.3487594907</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1539,7 +1539,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45907.415127581</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1571,7 +1571,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.415127581</x:v>
+        <x:v>45906.4142920486</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1603,7 +1603,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4142920486</x:v>
+        <x:v>45927.5025721412</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1859,7 +1859,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6649126968</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1887,11 +1887,9 @@
       <x:c r="C34" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
+      <x:c r="D34" s="2" t="s"/>
       <x:c r="E34" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45906.4454012384</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1914,14 +1912,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s"/>
       <x:c r="E35" s="3">
-        <x:v>45906.4454012384</x:v>
+        <x:v>45927.414603125</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>

--- a/downloaded_files/EPES403_Lecture-35417.xlsx
+++ b/downloaded_files/EPES403_Lecture-35417.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -352,6 +352,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Mohamed Ahmed Hassan Shaltout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد حمدى محمد عثمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Hamdy</x:t>
   </x:si>
   <x:si>
     <x:t>1220213</x:t>
@@ -476,7 +485,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -776,7 +785,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2017,7 +2026,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45928.7188393171</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2034,6 +2043,38 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES403_Lecture-35417.xlsx
+++ b/downloaded_files/EPES403_Lecture-35417.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Ziad mohamed mahmoud abdel al Hussien</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد مصطفي ابراهيم عبده الريس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZEIAD MOSTAFA IBRAHIM ABDOU ELRAYES</x:t>
   </x:si>
   <x:si>
     <x:t>1220125</x:t>
@@ -485,7 +494,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -785,7 +794,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1388,7 +1397,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4153457176</x:v>
+        <x:v>45932.3038470255</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1420,7 +1429,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4173033218</x:v>
+        <x:v>45907.4153457176</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1452,7 +1461,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45907.4173033218</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1484,7 +1493,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45913.3487594907</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1516,7 +1525,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45913.3487594907</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1548,7 +1557,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.415127581</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1580,7 +1589,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4142920486</x:v>
+        <x:v>45907.415127581</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1612,7 +1621,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.5025721412</x:v>
+        <x:v>45906.4142920486</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1644,7 +1653,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4145021991</x:v>
+        <x:v>45927.5025721412</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1676,7 +1685,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45907.4145021991</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1708,7 +1717,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4197170949</x:v>
+        <x:v>45906.6645735301</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1740,7 +1749,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4148835301</x:v>
+        <x:v>45907.4197170949</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1772,7 +1781,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6649875347</x:v>
+        <x:v>45907.4148835301</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1804,7 +1813,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6656438657</x:v>
+        <x:v>45906.6649875347</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1836,7 +1845,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4559436343</x:v>
+        <x:v>45906.6656438657</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1868,7 +1877,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45907.4559436343</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1896,9 +1905,11 @@
       <x:c r="C34" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s"/>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4454012384</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1921,16 +1932,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
+      <x:c r="D35" s="2" t="s"/>
       <x:c r="E35" s="3">
-        <x:v>45927.414603125</x:v>
+        <x:v>45906.4454012384</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1962,7 +1971,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.415621794</x:v>
+        <x:v>45927.414603125</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1994,7 +2003,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.5512003472</x:v>
+        <x:v>45909.415621794</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2026,7 +2035,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45928.7188393171</x:v>
+        <x:v>45909.5512003472</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2058,7 +2067,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45928.7188393171</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2075,6 +2084,38 @@
       <x:c r="R39" s="2" t="s"/>
       <x:c r="S39" s="2" t="s"/>
       <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES403_Lecture-35417.xlsx
+++ b/downloaded_files/EPES403_Lecture-35417.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,6 +121,12 @@
   </x:si>
   <x:si>
     <x:t>Belal Hatem Fawzi Anany</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تيما غسان الراعى</x:t>
   </x:si>
   <x:si>
     <x:t>1210216</x:t>
@@ -494,7 +500,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -794,7 +800,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1201,11 +1207,9 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
+      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45913.3456099537</x:v>
+        <x:v>45935.7907480324</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1228,16 +1232,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6660893171</x:v>
+        <x:v>45913.3456099537</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1260,16 +1264,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.414821956</x:v>
+        <x:v>45906.6660893171</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1292,16 +1296,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6647248495</x:v>
+        <x:v>45907.414821956</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1324,16 +1328,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6646109954</x:v>
+        <x:v>45906.6647248495</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1356,16 +1360,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.3528381944</x:v>
+        <x:v>45906.6646109954</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1388,16 +1392,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45932.3038470255</x:v>
+        <x:v>45913.3528381944</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1420,16 +1424,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4153457176</x:v>
+        <x:v>45932.3038470255</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1452,16 +1456,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4173033218</x:v>
+        <x:v>45907.4153457176</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1484,16 +1488,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45907.4173033218</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1516,16 +1520,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.3487594907</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1548,16 +1552,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45913.3487594907</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1580,16 +1584,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.415127581</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1612,16 +1616,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4142920486</x:v>
+        <x:v>45907.415127581</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1644,16 +1648,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.5025721412</x:v>
+        <x:v>45906.4142920486</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1676,16 +1680,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4145021991</x:v>
+        <x:v>45927.5025721412</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1708,16 +1712,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45907.4145021991</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1740,16 +1744,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4197170949</x:v>
+        <x:v>45906.6645735301</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1772,16 +1776,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4148835301</x:v>
+        <x:v>45907.4197170949</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1804,16 +1808,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6649875347</x:v>
+        <x:v>45907.4148835301</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1836,16 +1840,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6656438657</x:v>
+        <x:v>45906.6649875347</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1868,16 +1872,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4559436343</x:v>
+        <x:v>45906.6656438657</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1900,16 +1904,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45907.4559436343</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1932,14 +1936,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s"/>
       <x:c r="E35" s="3">
-        <x:v>45906.4454012384</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1967,11 +1973,9 @@
       <x:c r="C36" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
+      <x:c r="D36" s="2" t="s"/>
       <x:c r="E36" s="3">
-        <x:v>45927.414603125</x:v>
+        <x:v>45906.4454012384</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1994,16 +1998,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="C37" s="2" t="s">
+      <x:c r="D37" s="2" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.415621794</x:v>
+        <x:v>45927.414603125</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2026,16 +2030,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="C38" s="2" t="s">
+      <x:c r="D38" s="2" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.5512003472</x:v>
+        <x:v>45909.415621794</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2058,16 +2062,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="C39" s="2" t="s">
+      <x:c r="D39" s="2" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
       <x:c r="E39" s="3">
-        <x:v>45928.7188393171</x:v>
+        <x:v>45909.5512003472</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2090,16 +2094,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="C40" s="2" t="s">
+      <x:c r="D40" s="2" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45928.7188393171</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2116,6 +2120,38 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES403_Lecture-35417.xlsx
+++ b/downloaded_files/EPES403_Lecture-35417.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -367,15 +367,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Mohamed Ahmed Hassan Shaltout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد حمدى محمد عثمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Mohamed Hamdy</x:t>
   </x:si>
   <x:si>
     <x:t>1220213</x:t>
@@ -500,7 +491,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -800,7 +791,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2103,7 +2094,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45928.7188393171</x:v>
+        <x:v>45906.6649261921</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2120,38 +2111,6 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45906.6649261921</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
